--- a/贵州圣亿主播考情登记表.xlsx
+++ b/贵州圣亿主播考情登记表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>贵州圣亿参加会议考勤</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>22点</t>
+  </si>
+  <si>
+    <t>17点</t>
   </si>
   <si>
     <t>上课，近期开播待定</t>
@@ -260,7 +263,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,41 +374,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,66 +403,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,31 +445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,67 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,25 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +547,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -616,13 +595,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +691,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,36 +750,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,25 +775,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2999,11 +3002,11 @@
   <dimension ref="A1:CQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="CJ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="CL5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CA14" sqref="CA14"/>
+      <selection pane="bottomRight" activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3672,7 +3675,9 @@
       <c r="CI5" s="11"/>
       <c r="CJ5" s="11"/>
       <c r="CK5" s="11"/>
-      <c r="CL5" s="11"/>
+      <c r="CL5" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="CM5" s="11"/>
       <c r="CN5" s="11"/>
       <c r="CO5" s="11"/>
@@ -3745,12 +3750,12 @@
       <c r="BF6" s="11"/>
       <c r="BG6" s="11"/>
       <c r="BH6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
@@ -3761,17 +3766,17 @@
       <c r="BR6" s="11"/>
       <c r="BS6" s="11"/>
       <c r="BT6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU6" s="11"/>
       <c r="BV6" s="11"/>
       <c r="BW6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
       <c r="BZ6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA6" s="11"/>
       <c r="CB6" s="11"/>
@@ -3784,7 +3789,9 @@
       <c r="CI6" s="11"/>
       <c r="CJ6" s="11"/>
       <c r="CK6" s="11"/>
-      <c r="CL6" s="11"/>
+      <c r="CL6" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="CM6" s="11"/>
       <c r="CN6" s="11"/>
       <c r="CO6" s="11"/>
@@ -3797,7 +3804,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3859,14 +3866,14 @@
         <v>60</v>
       </c>
       <c r="BH7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI7" s="11"/>
       <c r="BJ7" s="11">
         <v>10</v>
       </c>
       <c r="BK7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11">
@@ -3879,17 +3886,17 @@
       <c r="BR7" s="11"/>
       <c r="BS7" s="11"/>
       <c r="BT7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BU7" s="11"/>
       <c r="BV7" s="11"/>
       <c r="BW7" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
       <c r="BZ7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA7" s="11"/>
       <c r="CB7" s="11">
@@ -3904,9 +3911,13 @@
       <c r="CI7" s="11"/>
       <c r="CJ7" s="11"/>
       <c r="CK7" s="11"/>
-      <c r="CL7" s="11"/>
+      <c r="CL7" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="CM7" s="11"/>
-      <c r="CN7" s="11"/>
+      <c r="CN7" s="11">
+        <v>10</v>
+      </c>
       <c r="CO7" s="11"/>
       <c r="CP7" s="11"/>
       <c r="CQ7" s="11"/>
@@ -3979,12 +3990,12 @@
         <v>20</v>
       </c>
       <c r="BH8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -3995,17 +4006,17 @@
       <c r="BR8" s="11"/>
       <c r="BS8" s="11"/>
       <c r="BT8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BU8" s="11"/>
       <c r="BV8" s="11"/>
       <c r="BW8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
       <c r="BZ8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
@@ -4018,7 +4029,9 @@
       <c r="CI8" s="11"/>
       <c r="CJ8" s="11"/>
       <c r="CK8" s="11"/>
-      <c r="CL8" s="11"/>
+      <c r="CL8" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="CM8" s="11"/>
       <c r="CN8" s="11"/>
       <c r="CO8" s="11"/>
@@ -4093,14 +4106,14 @@
         <v>30</v>
       </c>
       <c r="BH9" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI9" s="11"/>
       <c r="BJ9" s="11">
         <v>10</v>
       </c>
       <c r="BK9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
@@ -4111,17 +4124,17 @@
       <c r="BR9" s="11"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BU9" s="11"/>
       <c r="BV9" s="11"/>
       <c r="BW9" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
       <c r="BZ9" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA9" s="11"/>
       <c r="CB9" s="11">
@@ -4136,7 +4149,9 @@
       <c r="CI9" s="11"/>
       <c r="CJ9" s="11"/>
       <c r="CK9" s="11"/>
-      <c r="CL9" s="11"/>
+      <c r="CL9" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
       <c r="CO9" s="11"/>
@@ -4214,7 +4229,7 @@
       <c r="BI10" s="11"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11">
@@ -4227,7 +4242,7 @@
       <c r="BR10" s="11"/>
       <c r="BS10" s="11"/>
       <c r="BT10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BU10" s="11"/>
       <c r="BV10" s="11"/>
@@ -4250,7 +4265,9 @@
       <c r="CI10" s="11"/>
       <c r="CJ10" s="11"/>
       <c r="CK10" s="11"/>
-      <c r="CL10" s="11"/>
+      <c r="CL10" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="CM10" s="11"/>
       <c r="CN10" s="11"/>
       <c r="CO10" s="11"/>
@@ -4323,12 +4340,12 @@
       <c r="BF11" s="11"/>
       <c r="BG11" s="11"/>
       <c r="BH11" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BI11" s="11"/>
       <c r="BJ11" s="11"/>
       <c r="BK11" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
@@ -4339,17 +4356,17 @@
       <c r="BR11" s="11"/>
       <c r="BS11" s="11"/>
       <c r="BT11" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BU11" s="11"/>
       <c r="BV11" s="11"/>
       <c r="BW11" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
       <c r="BZ11" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CA11" s="11"/>
       <c r="CB11" s="11"/>
@@ -4362,7 +4379,9 @@
       <c r="CI11" s="11"/>
       <c r="CJ11" s="11"/>
       <c r="CK11" s="11"/>
-      <c r="CL11" s="11"/>
+      <c r="CL11" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="CM11" s="11"/>
       <c r="CN11" s="11"/>
       <c r="CO11" s="11"/>
@@ -4435,7 +4454,7 @@
       <c r="BF12" s="11"/>
       <c r="BG12" s="11"/>
       <c r="BH12" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI12" s="11"/>
       <c r="BJ12" s="11">
@@ -4453,12 +4472,12 @@
       <c r="BR12" s="11"/>
       <c r="BS12" s="11"/>
       <c r="BT12" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BU12" s="11"/>
       <c r="BV12" s="11"/>
       <c r="BW12" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BX12" s="11"/>
       <c r="BY12" s="11">
@@ -4478,7 +4497,9 @@
       <c r="CI12" s="11"/>
       <c r="CJ12" s="11"/>
       <c r="CK12" s="11"/>
-      <c r="CL12" s="11"/>
+      <c r="CL12" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -4551,12 +4572,12 @@
       <c r="BF13" s="11"/>
       <c r="BG13" s="11"/>
       <c r="BH13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
       <c r="BK13" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
@@ -4567,17 +4588,17 @@
       <c r="BR13" s="11"/>
       <c r="BS13" s="11"/>
       <c r="BT13" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BU13" s="11"/>
       <c r="BV13" s="11"/>
       <c r="BW13" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
       <c r="BZ13" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CA13" s="11"/>
       <c r="CB13" s="11"/>
@@ -4590,7 +4611,9 @@
       <c r="CI13" s="11"/>
       <c r="CJ13" s="11"/>
       <c r="CK13" s="11"/>
-      <c r="CL13" s="11"/>
+      <c r="CL13" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -4663,14 +4686,14 @@
       <c r="BF14" s="11"/>
       <c r="BG14" s="11"/>
       <c r="BH14" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI14" s="11"/>
       <c r="BJ14" s="11">
         <v>10</v>
       </c>
       <c r="BK14" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
@@ -4681,17 +4704,17 @@
       <c r="BR14" s="11"/>
       <c r="BS14" s="11"/>
       <c r="BT14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BU14" s="11"/>
       <c r="BV14" s="11"/>
       <c r="BW14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
       <c r="BZ14" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CA14" s="11"/>
       <c r="CB14" s="11"/>
@@ -4704,7 +4727,9 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
+      <c r="CL14" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>

--- a/贵州圣亿主播考情登记表.xlsx
+++ b/贵州圣亿主播考情登记表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>贵州圣亿参加会议考勤</t>
   </si>
@@ -83,7 +83,7 @@
     <t>李敏</t>
   </si>
   <si>
-    <t>贵州圣亿开播考勤</t>
+    <t>贵州圣亿1月开播考勤</t>
   </si>
   <si>
     <t>1号</t>
@@ -185,46 +185,25 @@
     <t>到点是否开播</t>
   </si>
   <si>
+    <t>17点</t>
+  </si>
+  <si>
+    <t>16点</t>
+  </si>
+  <si>
+    <t>15点</t>
+  </si>
+  <si>
+    <t>未反馈</t>
+  </si>
+  <si>
+    <t>18点</t>
+  </si>
+  <si>
     <t>13点</t>
   </si>
   <si>
     <t>14点</t>
-  </si>
-  <si>
-    <t>16点</t>
-  </si>
-  <si>
-    <t>22点</t>
-  </si>
-  <si>
-    <t>17点</t>
-  </si>
-  <si>
-    <t>上课，近期开播待定</t>
-  </si>
-  <si>
-    <t>未反馈</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>请假2天，家里面妹妹结婚</t>
-  </si>
-  <si>
-    <t>不开播，家里面有事</t>
-  </si>
-  <si>
-    <t>19点</t>
-  </si>
-  <si>
-    <t>在播</t>
-  </si>
-  <si>
-    <t>18点</t>
-  </si>
-  <si>
-    <t>15点</t>
   </si>
 </sst>
 </file>
@@ -263,89 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +271,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,19 +341,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -445,31 +424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,19 +466,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,13 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,42 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,37 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,45 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,6 +690,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,16 +745,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,145 +775,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3002,11 +2981,11 @@
   <dimension ref="A1:CQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="CL5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN9" sqref="CN9"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3574,21 +3553,29 @@
       </c>
       <c r="B5" s="11">
         <f>SUM(E5,H5,K5,N5,Q5,S5,W5,Z5,AC5,AF5,AI5,AL5,AO5,AR5,AU5,AX5,BA5,BD5,BG5,BJ5,BM5,BP5,BS5,BV5,BY5,CB5,CE5,CH5,CK5,CN5,CQ5)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3632,17 +3619,11 @@
       <c r="BD5" s="11"/>
       <c r="BE5" s="11"/>
       <c r="BF5" s="11"/>
-      <c r="BG5" s="11">
-        <v>10</v>
-      </c>
-      <c r="BH5" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
-      <c r="BK5" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="11"/>
@@ -3651,19 +3632,13 @@
       <c r="BQ5" s="11"/>
       <c r="BR5" s="11"/>
       <c r="BS5" s="11"/>
-      <c r="BT5" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="BT5" s="11"/>
       <c r="BU5" s="11"/>
       <c r="BV5" s="11"/>
-      <c r="BW5" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="BW5" s="11"/>
       <c r="BX5" s="11"/>
       <c r="BY5" s="11"/>
-      <c r="BZ5" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="BZ5" s="13"/>
       <c r="CA5" s="11"/>
       <c r="CB5" s="11"/>
       <c r="CC5" s="11"/>
@@ -3675,9 +3650,7 @@
       <c r="CI5" s="11"/>
       <c r="CJ5" s="11"/>
       <c r="CK5" s="11"/>
-      <c r="CL5" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="CL5" s="11"/>
       <c r="CM5" s="11"/>
       <c r="CN5" s="11"/>
       <c r="CO5" s="11"/>
@@ -3686,27 +3659,43 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" ref="B6:B14" si="0">SUM(E6,H6,K6,N6,Q6,S6,W6,Z6,AC6,AF6,AI6,AL6,AO6,AR6,AU6,AX6,BA6,BD6,BG6,BJ6,BM6,BP6,BS6,BV6,BY6,CB6,CE6,CH6,CK6,CN6,CQ6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="11">
+        <v>10</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="11">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="11">
+        <v>10</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11">
+        <v>10</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -3749,14 +3738,10 @@
       <c r="BE6" s="11"/>
       <c r="BF6" s="11"/>
       <c r="BG6" s="11"/>
-      <c r="BH6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="BH6" s="11"/>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="11"/>
-      <c r="BK6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="BK6" s="11"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="11"/>
@@ -3765,19 +3750,13 @@
       <c r="BQ6" s="11"/>
       <c r="BR6" s="11"/>
       <c r="BS6" s="11"/>
-      <c r="BT6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="BT6" s="11"/>
       <c r="BU6" s="11"/>
       <c r="BV6" s="11"/>
-      <c r="BW6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="BW6" s="11"/>
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
-      <c r="BZ6" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="BZ6" s="13"/>
       <c r="CA6" s="11"/>
       <c r="CB6" s="11"/>
       <c r="CC6" s="11"/>
@@ -3789,9 +3768,7 @@
       <c r="CI6" s="11"/>
       <c r="CJ6" s="11"/>
       <c r="CK6" s="11"/>
-      <c r="CL6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="CL6" s="11"/>
       <c r="CM6" s="11"/>
       <c r="CN6" s="11"/>
       <c r="CO6" s="11"/>
@@ -3800,27 +3777,43 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="11">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="N7" s="11">
+        <v>10</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -3862,46 +3855,28 @@
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
-      <c r="BG7" s="11">
-        <v>60</v>
-      </c>
-      <c r="BH7" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="12"/>
       <c r="BI7" s="11"/>
-      <c r="BJ7" s="11">
-        <v>10</v>
-      </c>
-      <c r="BK7" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="12"/>
       <c r="BL7" s="11"/>
-      <c r="BM7" s="11">
-        <v>10</v>
-      </c>
+      <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
       <c r="BO7" s="11"/>
       <c r="BP7" s="11"/>
       <c r="BQ7" s="11"/>
       <c r="BR7" s="11"/>
       <c r="BS7" s="11"/>
-      <c r="BT7" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="BT7" s="11"/>
       <c r="BU7" s="11"/>
       <c r="BV7" s="11"/>
-      <c r="BW7" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="BW7" s="11"/>
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
-      <c r="BZ7" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BZ7" s="12"/>
       <c r="CA7" s="11"/>
-      <c r="CB7" s="11">
-        <v>10</v>
-      </c>
+      <c r="CB7" s="11"/>
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="11"/>
@@ -3911,38 +3886,42 @@
       <c r="CI7" s="11"/>
       <c r="CJ7" s="11"/>
       <c r="CK7" s="11"/>
-      <c r="CL7" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="CL7" s="12"/>
       <c r="CM7" s="11"/>
-      <c r="CN7" s="11">
-        <v>10</v>
-      </c>
+      <c r="CN7" s="11"/>
       <c r="CO7" s="11"/>
       <c r="CP7" s="11"/>
       <c r="CQ7" s="11"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -3986,17 +3965,11 @@
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
       <c r="BF8" s="11"/>
-      <c r="BG8" s="11">
-        <v>20</v>
-      </c>
-      <c r="BH8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="11"/>
-      <c r="BK8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
@@ -4005,19 +3978,13 @@
       <c r="BQ8" s="11"/>
       <c r="BR8" s="11"/>
       <c r="BS8" s="11"/>
-      <c r="BT8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="BT8" s="11"/>
       <c r="BU8" s="11"/>
       <c r="BV8" s="11"/>
-      <c r="BW8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="BW8" s="11"/>
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
-      <c r="BZ8" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="BZ8" s="13"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
@@ -4029,9 +3996,7 @@
       <c r="CI8" s="11"/>
       <c r="CJ8" s="11"/>
       <c r="CK8" s="11"/>
-      <c r="CL8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="CL8" s="11"/>
       <c r="CM8" s="11"/>
       <c r="CN8" s="11"/>
       <c r="CO8" s="11"/>
@@ -4040,25 +4005,35 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C9" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="11">
+        <v>10</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -4102,19 +4077,11 @@
       <c r="BD9" s="11"/>
       <c r="BE9" s="11"/>
       <c r="BF9" s="11"/>
-      <c r="BG9" s="11">
-        <v>30</v>
-      </c>
-      <c r="BH9" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="12"/>
       <c r="BI9" s="11"/>
-      <c r="BJ9" s="11">
-        <v>10</v>
-      </c>
-      <c r="BK9" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
@@ -4123,23 +4090,15 @@
       <c r="BQ9" s="11"/>
       <c r="BR9" s="11"/>
       <c r="BS9" s="11"/>
-      <c r="BT9" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="BT9" s="11"/>
       <c r="BU9" s="11"/>
       <c r="BV9" s="11"/>
-      <c r="BW9" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="BW9" s="11"/>
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
-      <c r="BZ9" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BZ9" s="12"/>
       <c r="CA9" s="11"/>
-      <c r="CB9" s="11">
-        <v>10</v>
-      </c>
+      <c r="CB9" s="11"/>
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="11"/>
@@ -4149,9 +4108,7 @@
       <c r="CI9" s="11"/>
       <c r="CJ9" s="11"/>
       <c r="CK9" s="11"/>
-      <c r="CL9" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="CL9" s="11"/>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
       <c r="CO9" s="11"/>
@@ -4160,25 +4117,35 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="11">
+        <v>10</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -4223,37 +4190,25 @@
       <c r="BE10" s="11"/>
       <c r="BF10" s="11"/>
       <c r="BG10" s="11"/>
-      <c r="BH10" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="BH10" s="11"/>
       <c r="BI10" s="11"/>
       <c r="BJ10" s="11"/>
-      <c r="BK10" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BK10" s="12"/>
       <c r="BL10" s="11"/>
-      <c r="BM10" s="11">
-        <v>10</v>
-      </c>
+      <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
       <c r="BO10" s="11"/>
       <c r="BP10" s="11"/>
       <c r="BQ10" s="11"/>
       <c r="BR10" s="11"/>
       <c r="BS10" s="11"/>
-      <c r="BT10" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="BT10" s="11"/>
       <c r="BU10" s="11"/>
       <c r="BV10" s="11"/>
-      <c r="BW10" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="BW10" s="11"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="11"/>
-      <c r="BZ10" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="BZ10" s="13"/>
       <c r="CA10" s="11"/>
       <c r="CB10" s="11"/>
       <c r="CC10" s="11"/>
@@ -4265,9 +4220,7 @@
       <c r="CI10" s="11"/>
       <c r="CJ10" s="11"/>
       <c r="CK10" s="11"/>
-      <c r="CL10" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="CL10" s="11"/>
       <c r="CM10" s="11"/>
       <c r="CN10" s="11"/>
       <c r="CO10" s="11"/>
@@ -4276,7 +4229,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
@@ -4285,16 +4238,24 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -4339,14 +4300,10 @@
       <c r="BE11" s="11"/>
       <c r="BF11" s="11"/>
       <c r="BG11" s="11"/>
-      <c r="BH11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="BH11" s="11"/>
       <c r="BI11" s="11"/>
       <c r="BJ11" s="11"/>
-      <c r="BK11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
@@ -4355,19 +4312,13 @@
       <c r="BQ11" s="11"/>
       <c r="BR11" s="11"/>
       <c r="BS11" s="11"/>
-      <c r="BT11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="BT11" s="11"/>
       <c r="BU11" s="11"/>
       <c r="BV11" s="11"/>
-      <c r="BW11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="BW11" s="11"/>
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
-      <c r="BZ11" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="BZ11" s="13"/>
       <c r="CA11" s="11"/>
       <c r="CB11" s="11"/>
       <c r="CC11" s="11"/>
@@ -4379,9 +4330,7 @@
       <c r="CI11" s="11"/>
       <c r="CJ11" s="11"/>
       <c r="CK11" s="11"/>
-      <c r="CL11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="CL11" s="11"/>
       <c r="CM11" s="11"/>
       <c r="CN11" s="11"/>
       <c r="CO11" s="11"/>
@@ -4389,12 +4338,10 @@
       <c r="CQ11" s="11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
-      <c r="A12" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -4453,16 +4400,10 @@
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
       <c r="BG12" s="11"/>
-      <c r="BH12" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BH12" s="12"/>
       <c r="BI12" s="11"/>
-      <c r="BJ12" s="11">
-        <v>10</v>
-      </c>
-      <c r="BK12" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
@@ -4471,21 +4412,13 @@
       <c r="BQ12" s="11"/>
       <c r="BR12" s="11"/>
       <c r="BS12" s="11"/>
-      <c r="BT12" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="BT12" s="11"/>
       <c r="BU12" s="11"/>
       <c r="BV12" s="11"/>
-      <c r="BW12" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BW12" s="12"/>
       <c r="BX12" s="11"/>
-      <c r="BY12" s="11">
-        <v>20</v>
-      </c>
-      <c r="BZ12" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="13"/>
       <c r="CA12" s="11"/>
       <c r="CB12" s="11"/>
       <c r="CC12" s="11"/>
@@ -4497,9 +4430,7 @@
       <c r="CI12" s="11"/>
       <c r="CJ12" s="11"/>
       <c r="CK12" s="11"/>
-      <c r="CL12" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -4507,9 +4438,7 @@
       <c r="CQ12" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4571,14 +4500,10 @@
       <c r="BE13" s="11"/>
       <c r="BF13" s="11"/>
       <c r="BG13" s="11"/>
-      <c r="BH13" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="BH13" s="11"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
-      <c r="BK13" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="BK13" s="13"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
       <c r="BN13" s="11"/>
@@ -4587,19 +4512,13 @@
       <c r="BQ13" s="11"/>
       <c r="BR13" s="11"/>
       <c r="BS13" s="11"/>
-      <c r="BT13" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="BT13" s="11"/>
       <c r="BU13" s="11"/>
       <c r="BV13" s="11"/>
-      <c r="BW13" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="BW13" s="11"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
-      <c r="BZ13" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="BZ13" s="13"/>
       <c r="CA13" s="11"/>
       <c r="CB13" s="11"/>
       <c r="CC13" s="11"/>
@@ -4611,9 +4530,7 @@
       <c r="CI13" s="11"/>
       <c r="CJ13" s="11"/>
       <c r="CK13" s="11"/>
-      <c r="CL13" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -4621,12 +4538,10 @@
       <c r="CQ13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="40" customHeight="1" spans="1:95">
-      <c r="A14" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -4685,16 +4600,10 @@
       <c r="BE14" s="11"/>
       <c r="BF14" s="11"/>
       <c r="BG14" s="11"/>
-      <c r="BH14" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="BH14" s="12"/>
       <c r="BI14" s="11"/>
-      <c r="BJ14" s="11">
-        <v>10</v>
-      </c>
-      <c r="BK14" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="13"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
       <c r="BN14" s="11"/>
@@ -4703,19 +4612,13 @@
       <c r="BQ14" s="11"/>
       <c r="BR14" s="11"/>
       <c r="BS14" s="11"/>
-      <c r="BT14" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="BT14" s="11"/>
       <c r="BU14" s="11"/>
       <c r="BV14" s="11"/>
-      <c r="BW14" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="BW14" s="11"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
-      <c r="BZ14" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="BZ14" s="13"/>
       <c r="CA14" s="11"/>
       <c r="CB14" s="11"/>
       <c r="CC14" s="11"/>
@@ -4727,9 +4630,7 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
